--- a/Mind mapping/ARM编程/CPU和所有外围设备的通信/UART+I2C+SPI+USB+I2S的比较.xlsx
+++ b/Mind mapping/ARM编程/CPU和所有外围设备的通信/UART+I2C+SPI+USB+I2S的比较.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14160" windowHeight="6492"/>
+    <workbookView windowWidth="15875" windowHeight="6095"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,8 @@
     <t>较慢</t>
   </si>
   <si>
-    <t>1个</t>
+    <t>1个，一对一的
+一个串口只能接一个设备</t>
   </si>
   <si>
     <t>I2C</t>
@@ -68,6 +69,7 @@
   </si>
   <si>
     <t xml:space="preserve">半双工，同一时刻只能读或者写
+只有一根数据线SDA，一根线同一时刻只能做同一件事情
 </t>
   </si>
   <si>
@@ -111,29 +113,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -149,6 +135,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -157,6 +174,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -164,10 +196,25 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -188,29 +235,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,38 +251,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,49 +266,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,133 +440,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,6 +457,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -489,30 +515,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,10 +565,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -575,139 +577,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1033,8 +1038,8 @@
   <sheetPr/>
   <dimension ref="B2:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1047,7 +1052,7 @@
     <col min="7" max="7" width="24.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="72" spans="2:3">
+    <row r="2" ht="86.4" spans="2:3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1088,11 +1093,11 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="43.2" spans="2:7">
+    <row r="5" ht="72" spans="2:7">
       <c r="B5" t="s">
         <v>13</v>
       </c>
